--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\juego\runer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1CAC631-3C39-424A-9326-4BF9B9570ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F7CC8-A63E-4DB7-A23D-5AAA6DBD541B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790" activeTab="3" xr2:uid="{6F9F098E-ED6B-45D3-B97C-F08E61DDF8FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790" xr2:uid="{6F9F098E-ED6B-45D3-B97C-F08E61DDF8FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
+    <sheet name="menu" sheetId="1" r:id="rId1"/>
+    <sheet name="escenario" sheetId="2" r:id="rId2"/>
+    <sheet name="personaje" sheetId="3" r:id="rId3"/>
+    <sheet name="pormodelar" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,6 +95,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B457A7E1-2DA2-45D1-BCA2-97002F325A5E}"/>
@@ -169,6 +170,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Flecha: a la derecha 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C9C226-5A5F-409B-A20F-D62602CD8719}"/>
@@ -238,6 +240,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Flecha: a la derecha 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB17017F-901B-4CB0-9F41-CF1DA5EF4616}"/>
@@ -307,6 +310,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Flecha: a la derecha 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4362FFF2-37C1-42A8-B3D3-25D893BD189E}"/>
@@ -368,21 +372,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Flecha: a la derecha 14">
+        <xdr:cNvPr id="19" name="Flecha: a la derecha 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87F3B3C-D9F1-4A6B-90EE-32F7990C431B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E655B24-F91E-4238-825E-6BB8E4215B74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -390,15 +395,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="542925"/>
+          <a:off x="0" y="3838574"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -425,8 +431,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>MENU</a:t>
-          </a:r>
+            <a:t>POR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> MODEL</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -436,21 +447,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Flecha: a la derecha 15">
+        <xdr:cNvPr id="20" name="Flecha: a la derecha 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0623D86-D8D9-43F4-88F9-4DCB74EBB22B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F133B922-7A6F-4AE3-B3DC-D2843CFC8403}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3600449"/>
+          <a:off x="0" y="2728912"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -494,160 +506,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>POR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
-            <a:t> MODEL</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
+            <a:t>PERSONAJES</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Flecha: a la derecha 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960345F0-141A-4E99-969C-E10B9D0A5EA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4762" y="2595562"/>
-          <a:ext cx="838200" cy="1095375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>PERSONAJES</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flecha: a la derecha 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5C160C-F9E3-4E27-B415-C5E38B87E6CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1557337"/>
-          <a:ext cx="838200" cy="1095375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>ESCENARIO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -663,10 +528,11 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flecha: a la derecha 8">
+        <xdr:cNvPr id="22" name="Flecha: a la derecha 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DBBFEB-CB35-474E-A1CF-CD6801B9510B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75976DD4-F43B-4394-A025-CCA81B45F6B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,21 +586,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Flecha: a la derecha 9">
+        <xdr:cNvPr id="21" name="Flecha: a la derecha 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54502EB-DD74-4BD9-B3DE-99285A63CCF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FE62BE-AA79-4B95-8220-3A1EE09AD4C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,7 +609,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3600449"/>
+          <a:off x="0" y="1624012"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -750,8 +617,7 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -778,6 +644,81 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>ESCENARIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Flecha: a la derecha 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EB0417-3D19-4FE0-96AF-351D35F99FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3838574"/>
+          <a:ext cx="838200" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
             <a:t>POR</a:t>
           </a:r>
           <a:r>
@@ -794,21 +735,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flecha: a la derecha 11">
+        <xdr:cNvPr id="14" name="Flecha: a la derecha 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4580919-BF92-40C0-86C2-D3E06D62662F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C3003B-6167-4991-8DC0-6E52B265B398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,7 +758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1557337"/>
+          <a:off x="0" y="2728912"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -824,8 +766,7 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -852,7 +793,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>ESCENARIO</a:t>
+            <a:t>PERSONAJES</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -862,22 +803,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flecha: a la derecha 10">
+        <xdr:cNvPr id="15" name="Flecha: a la derecha 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830B248F-F68C-4405-A8E9-A1E60C88F9F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333EFF9A-81D0-417C-9738-1EAC8BF8D548}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -885,7 +827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762" y="2595562"/>
+          <a:off x="0" y="1624012"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -893,7 +835,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -920,18 +863,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>PERSONAJES</a:t>
+            <a:t>ESCENARIO</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -947,10 +885,11 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
+        <xdr:cNvPr id="16" name="Flecha: a la derecha 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D70430-9FC9-42DD-8136-D723FFF65606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A015AF7-C0A6-424F-8F54-E70D8C0E02C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,25 +939,31 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Flecha: a la derecha 4">
+        <xdr:cNvPr id="15" name="Flecha: a la derecha 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330D0ED5-7FEB-4E86-A515-68E7CAF38127}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C591D0C9-B9FB-4DA9-82E2-B25757251A6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1557337"/>
+          <a:off x="0" y="2728912"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1034,7 +979,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -1061,7 +1007,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>ESCENARIO</a:t>
+            <a:t>PERSONAJES</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1071,22 +1017,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Flecha: a la derecha 3">
+        <xdr:cNvPr id="16" name="Flecha: a la derecha 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B840D00B-D904-49E6-A63D-4892681CAF9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A47574-E8F9-4030-BF6D-D3D4519DC083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762" y="2595562"/>
+          <a:off x="0" y="1624012"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1130,7 +1077,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>PERSONAJES</a:t>
+            <a:t>ESCENARIO</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1141,21 +1088,22 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flecha: a la derecha 2">
+        <xdr:cNvPr id="17" name="Flecha: a la derecha 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250D2E4F-89D4-4F58-B476-897E66F12289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C493A2EE-1AB5-4D50-B417-8C623707EC68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1111,76 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3600449"/>
+          <a:off x="0" y="542925"/>
+          <a:ext cx="838200" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>MENU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flecha: a la derecha 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A8ED01-5A86-4684-BB62-916D3FD9479D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3838574"/>
           <a:ext cx="838200" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1512,9 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548A7C5E-F5BD-4FF8-B80C-D8F53AC03386}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -1527,9 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DCF8C7-657A-4D6F-8903-DA0A9DCE3101}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -1543,7 +1556,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1557,9 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FDFB3D-B54F-4EE2-A13A-A38DE6890F2F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
